--- a/individual_case_outputs/avey/182.xlsx
+++ b/individual_case_outputs/avey/182.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>chronic obstructive pulmonary disease</t>
+          <t>acute bronchitis</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -843,13 +843,13 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>chronic obstructive pulmonary disease</t>
+          <t>asthma</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>chronic bronchitis</t>
+          <t>chronic obstructive pulmonary disease</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -983,7 +983,7 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>chronic obstructive pulmonary disease</t>
+          <t>primary spontaneous pneumothorax</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -1024,13 +1024,13 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>primary spontaneous pneumothorax</t>
+          <t>pneumonia</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>emphysema</t>
+          <t>lung cancer</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1041,43 +1041,6 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>pneumonia</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>lung cancer</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
